--- a/cognitoUserBulkUpload/teacher.xlsx
+++ b/cognitoUserBulkUpload/teacher.xlsx
@@ -24,189 +24,1812 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
-  <si>
-    <t>Syedss1200</t>
-  </si>
-  <si>
-    <t>Syedss1201</t>
-  </si>
-  <si>
-    <t>Syedss1202</t>
-  </si>
-  <si>
-    <t>Syedss1203</t>
-  </si>
-  <si>
-    <t>Syedss1204</t>
-  </si>
-  <si>
-    <t>Syedss1205</t>
-  </si>
-  <si>
-    <t>Syedss1206</t>
-  </si>
-  <si>
-    <t>Syedss1207</t>
-  </si>
-  <si>
-    <t>Syedss1208</t>
-  </si>
-  <si>
-    <t>Syedss1209</t>
-  </si>
-  <si>
-    <t>Syedss1210</t>
-  </si>
-  <si>
-    <t>Syedss1211</t>
-  </si>
-  <si>
-    <t>Syedss1212</t>
-  </si>
-  <si>
-    <t>Syedss1213</t>
-  </si>
-  <si>
-    <t>Syedss1214</t>
-  </si>
-  <si>
-    <t>Syedss1215</t>
-  </si>
-  <si>
-    <t>Syedss1216</t>
-  </si>
-  <si>
-    <t>Syedss1217</t>
-  </si>
-  <si>
-    <t>Syedss1218</t>
-  </si>
-  <si>
-    <t>Syedss1219</t>
-  </si>
-  <si>
-    <t>Syedss1220</t>
-  </si>
-  <si>
-    <t>Syedss1221</t>
-  </si>
-  <si>
-    <t>Syedss1222</t>
-  </si>
-  <si>
-    <t>Syedss1223</t>
-  </si>
-  <si>
-    <t>Syedss1224</t>
-  </si>
-  <si>
-    <t>Syedss1225</t>
-  </si>
-  <si>
-    <t>Syedss1226</t>
-  </si>
-  <si>
-    <t>Syedss1227</t>
-  </si>
-  <si>
-    <t>Syedss1228</t>
-  </si>
-  <si>
-    <t>Syedss1229</t>
-  </si>
-  <si>
-    <t>Syedss1230</t>
-  </si>
-  <si>
-    <t>Syedss1231</t>
-  </si>
-  <si>
-    <t>Syedss1232</t>
-  </si>
-  <si>
-    <t>Syedss1233</t>
-  </si>
-  <si>
-    <t>Syedss1234</t>
-  </si>
-  <si>
-    <t>Syedss1235</t>
-  </si>
-  <si>
-    <t>Syedss1236</t>
-  </si>
-  <si>
-    <t>Syedss1237</t>
-  </si>
-  <si>
-    <t>Syedss1238</t>
-  </si>
-  <si>
-    <t>Syedss1239</t>
-  </si>
-  <si>
-    <t>Syedss1240</t>
-  </si>
-  <si>
-    <t>Syedss1241</t>
-  </si>
-  <si>
-    <t>Syedss1242</t>
-  </si>
-  <si>
-    <t>Syedss1243</t>
-  </si>
-  <si>
-    <t>Syedss1244</t>
-  </si>
-  <si>
-    <t>Syedss1245</t>
-  </si>
-  <si>
-    <t>Syedss1246</t>
-  </si>
-  <si>
-    <t>Syedss1247</t>
-  </si>
-  <si>
-    <t>Syedss1248</t>
-  </si>
-  <si>
-    <t>Syedss1249</t>
-  </si>
-  <si>
-    <t>Syedss1250</t>
-  </si>
-  <si>
-    <t>Syedss1251</t>
-  </si>
-  <si>
-    <t>Syedss1252</t>
-  </si>
-  <si>
-    <t>Syedss1253</t>
-  </si>
-  <si>
-    <t>Syedss1254</t>
-  </si>
-  <si>
-    <t>Syedss1255</t>
-  </si>
-  <si>
-    <t>Syedss1256</t>
-  </si>
-  <si>
-    <t>Syedss1257</t>
-  </si>
-  <si>
-    <t>Syedss1258</t>
-  </si>
-  <si>
-    <t>Syedss1259</t>
-  </si>
-  <si>
-    <t>Syedss1260</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="602">
+  <si>
+    <t>syeds1000</t>
+  </si>
+  <si>
+    <t>syeds1001</t>
+  </si>
+  <si>
+    <t>syeds1002</t>
+  </si>
+  <si>
+    <t>syeds1003</t>
+  </si>
+  <si>
+    <t>syeds1004</t>
+  </si>
+  <si>
+    <t>syeds1005</t>
+  </si>
+  <si>
+    <t>syeds1006</t>
+  </si>
+  <si>
+    <t>syeds1007</t>
+  </si>
+  <si>
+    <t>syeds1008</t>
+  </si>
+  <si>
+    <t>syeds1009</t>
+  </si>
+  <si>
+    <t>syeds1010</t>
+  </si>
+  <si>
+    <t>syeds1011</t>
+  </si>
+  <si>
+    <t>syeds1012</t>
+  </si>
+  <si>
+    <t>syeds1013</t>
+  </si>
+  <si>
+    <t>syeds1014</t>
+  </si>
+  <si>
+    <t>syeds1015</t>
+  </si>
+  <si>
+    <t>syeds1016</t>
+  </si>
+  <si>
+    <t>syeds1017</t>
+  </si>
+  <si>
+    <t>syeds1018</t>
+  </si>
+  <si>
+    <t>syeds1019</t>
+  </si>
+  <si>
+    <t>syeds1020</t>
+  </si>
+  <si>
+    <t>syeds1021</t>
+  </si>
+  <si>
+    <t>syeds1022</t>
+  </si>
+  <si>
+    <t>syeds1023</t>
+  </si>
+  <si>
+    <t>syeds1024</t>
+  </si>
+  <si>
+    <t>syeds1025</t>
+  </si>
+  <si>
+    <t>syeds1026</t>
+  </si>
+  <si>
+    <t>syeds1027</t>
+  </si>
+  <si>
+    <t>syeds1028</t>
+  </si>
+  <si>
+    <t>syeds1029</t>
+  </si>
+  <si>
+    <t>syeds1030</t>
+  </si>
+  <si>
+    <t>syeds1031</t>
+  </si>
+  <si>
+    <t>syeds1032</t>
+  </si>
+  <si>
+    <t>syeds1033</t>
+  </si>
+  <si>
+    <t>syeds1034</t>
+  </si>
+  <si>
+    <t>syeds1035</t>
+  </si>
+  <si>
+    <t>syeds1036</t>
+  </si>
+  <si>
+    <t>syeds1037</t>
+  </si>
+  <si>
+    <t>syeds1038</t>
+  </si>
+  <si>
+    <t>syeds1039</t>
+  </si>
+  <si>
+    <t>syeds1040</t>
+  </si>
+  <si>
+    <t>syeds1041</t>
+  </si>
+  <si>
+    <t>syeds1042</t>
+  </si>
+  <si>
+    <t>syeds1043</t>
+  </si>
+  <si>
+    <t>syeds1044</t>
+  </si>
+  <si>
+    <t>syeds1045</t>
+  </si>
+  <si>
+    <t>syeds1046</t>
+  </si>
+  <si>
+    <t>syeds1047</t>
+  </si>
+  <si>
+    <t>syeds1048</t>
+  </si>
+  <si>
+    <t>syeds1049</t>
+  </si>
+  <si>
+    <t>syeds1050</t>
+  </si>
+  <si>
+    <t>syeds1051</t>
+  </si>
+  <si>
+    <t>syeds1052</t>
+  </si>
+  <si>
+    <t>syeds1053</t>
+  </si>
+  <si>
+    <t>syeds1054</t>
+  </si>
+  <si>
+    <t>syeds1055</t>
+  </si>
+  <si>
+    <t>syeds1056</t>
+  </si>
+  <si>
+    <t>syeds1057</t>
+  </si>
+  <si>
+    <t>syeds1058</t>
+  </si>
+  <si>
+    <t>syeds1059</t>
+  </si>
+  <si>
+    <t>syeds1060</t>
+  </si>
+  <si>
+    <t>syeds1061</t>
+  </si>
+  <si>
+    <t>syeds1062</t>
+  </si>
+  <si>
+    <t>syeds1063</t>
+  </si>
+  <si>
+    <t>syeds1064</t>
+  </si>
+  <si>
+    <t>syeds1065</t>
+  </si>
+  <si>
+    <t>syeds1066</t>
+  </si>
+  <si>
+    <t>syeds1067</t>
+  </si>
+  <si>
+    <t>syeds1068</t>
+  </si>
+  <si>
+    <t>syeds1069</t>
+  </si>
+  <si>
+    <t>syeds1070</t>
+  </si>
+  <si>
+    <t>syeds1071</t>
+  </si>
+  <si>
+    <t>syeds1072</t>
+  </si>
+  <si>
+    <t>syeds1073</t>
+  </si>
+  <si>
+    <t>syeds1074</t>
+  </si>
+  <si>
+    <t>syeds1075</t>
+  </si>
+  <si>
+    <t>syeds1076</t>
+  </si>
+  <si>
+    <t>syeds1077</t>
+  </si>
+  <si>
+    <t>syeds1078</t>
+  </si>
+  <si>
+    <t>syeds1079</t>
+  </si>
+  <si>
+    <t>syeds1080</t>
+  </si>
+  <si>
+    <t>syeds1081</t>
+  </si>
+  <si>
+    <t>syeds1082</t>
+  </si>
+  <si>
+    <t>syeds1083</t>
+  </si>
+  <si>
+    <t>syeds1084</t>
+  </si>
+  <si>
+    <t>syeds1085</t>
+  </si>
+  <si>
+    <t>syeds1086</t>
+  </si>
+  <si>
+    <t>syeds1087</t>
+  </si>
+  <si>
+    <t>syeds1088</t>
+  </si>
+  <si>
+    <t>syeds1089</t>
+  </si>
+  <si>
+    <t>syeds1090</t>
+  </si>
+  <si>
+    <t>syeds1091</t>
+  </si>
+  <si>
+    <t>syeds1092</t>
+  </si>
+  <si>
+    <t>syeds1093</t>
+  </si>
+  <si>
+    <t>syeds1094</t>
+  </si>
+  <si>
+    <t>syeds1095</t>
+  </si>
+  <si>
+    <t>syeds1096</t>
+  </si>
+  <si>
+    <t>syeds1097</t>
+  </si>
+  <si>
+    <t>syeds1098</t>
+  </si>
+  <si>
+    <t>syeds1099</t>
+  </si>
+  <si>
+    <t>syeds1100</t>
+  </si>
+  <si>
+    <t>syeds1101</t>
+  </si>
+  <si>
+    <t>syeds1102</t>
+  </si>
+  <si>
+    <t>syeds1103</t>
+  </si>
+  <si>
+    <t>syeds1104</t>
+  </si>
+  <si>
+    <t>syeds1105</t>
+  </si>
+  <si>
+    <t>syeds1106</t>
+  </si>
+  <si>
+    <t>syeds1107</t>
+  </si>
+  <si>
+    <t>syeds1108</t>
+  </si>
+  <si>
+    <t>syeds1109</t>
+  </si>
+  <si>
+    <t>syeds1110</t>
+  </si>
+  <si>
+    <t>syeds1111</t>
+  </si>
+  <si>
+    <t>syeds1112</t>
+  </si>
+  <si>
+    <t>syeds1113</t>
+  </si>
+  <si>
+    <t>syeds1114</t>
+  </si>
+  <si>
+    <t>syeds1115</t>
+  </si>
+  <si>
+    <t>syeds1116</t>
+  </si>
+  <si>
+    <t>syeds1117</t>
+  </si>
+  <si>
+    <t>syeds1118</t>
+  </si>
+  <si>
+    <t>syeds1119</t>
+  </si>
+  <si>
+    <t>syeds1120</t>
+  </si>
+  <si>
+    <t>syeds1121</t>
+  </si>
+  <si>
+    <t>syeds1122</t>
+  </si>
+  <si>
+    <t>syeds1123</t>
+  </si>
+  <si>
+    <t>syeds1124</t>
+  </si>
+  <si>
+    <t>syeds1125</t>
+  </si>
+  <si>
+    <t>syeds1126</t>
+  </si>
+  <si>
+    <t>syeds1127</t>
+  </si>
+  <si>
+    <t>syeds1128</t>
+  </si>
+  <si>
+    <t>syeds1129</t>
+  </si>
+  <si>
+    <t>syeds1130</t>
+  </si>
+  <si>
+    <t>syeds1131</t>
+  </si>
+  <si>
+    <t>syeds1132</t>
+  </si>
+  <si>
+    <t>syeds1133</t>
+  </si>
+  <si>
+    <t>syeds1134</t>
+  </si>
+  <si>
+    <t>syeds1135</t>
+  </si>
+  <si>
+    <t>syeds1136</t>
+  </si>
+  <si>
+    <t>syeds1137</t>
+  </si>
+  <si>
+    <t>syeds1138</t>
+  </si>
+  <si>
+    <t>syeds1139</t>
+  </si>
+  <si>
+    <t>syeds1140</t>
+  </si>
+  <si>
+    <t>syeds1141</t>
+  </si>
+  <si>
+    <t>syeds1142</t>
+  </si>
+  <si>
+    <t>syeds1143</t>
+  </si>
+  <si>
+    <t>syeds1144</t>
+  </si>
+  <si>
+    <t>syeds1145</t>
+  </si>
+  <si>
+    <t>syeds1146</t>
+  </si>
+  <si>
+    <t>syeds1147</t>
+  </si>
+  <si>
+    <t>syeds1148</t>
+  </si>
+  <si>
+    <t>syeds1149</t>
+  </si>
+  <si>
+    <t>syeds1150</t>
+  </si>
+  <si>
+    <t>syeds1151</t>
+  </si>
+  <si>
+    <t>syeds1152</t>
+  </si>
+  <si>
+    <t>syeds1153</t>
+  </si>
+  <si>
+    <t>syeds1154</t>
+  </si>
+  <si>
+    <t>syeds1155</t>
+  </si>
+  <si>
+    <t>syeds1156</t>
+  </si>
+  <si>
+    <t>syeds1157</t>
+  </si>
+  <si>
+    <t>syeds1158</t>
+  </si>
+  <si>
+    <t>syeds1159</t>
+  </si>
+  <si>
+    <t>syeds1160</t>
+  </si>
+  <si>
+    <t>syeds1161</t>
+  </si>
+  <si>
+    <t>syeds1162</t>
+  </si>
+  <si>
+    <t>syeds1163</t>
+  </si>
+  <si>
+    <t>syeds1164</t>
+  </si>
+  <si>
+    <t>syeds1165</t>
+  </si>
+  <si>
+    <t>syeds1166</t>
+  </si>
+  <si>
+    <t>syeds1167</t>
+  </si>
+  <si>
+    <t>syeds1168</t>
+  </si>
+  <si>
+    <t>syeds1169</t>
+  </si>
+  <si>
+    <t>syeds1170</t>
+  </si>
+  <si>
+    <t>syeds1171</t>
+  </si>
+  <si>
+    <t>syeds1172</t>
+  </si>
+  <si>
+    <t>syeds1173</t>
+  </si>
+  <si>
+    <t>syeds1174</t>
+  </si>
+  <si>
+    <t>syeds1175</t>
+  </si>
+  <si>
+    <t>syeds1176</t>
+  </si>
+  <si>
+    <t>syeds1177</t>
+  </si>
+  <si>
+    <t>syeds1178</t>
+  </si>
+  <si>
+    <t>syeds1179</t>
+  </si>
+  <si>
+    <t>syeds1180</t>
+  </si>
+  <si>
+    <t>syeds1181</t>
+  </si>
+  <si>
+    <t>syeds1182</t>
+  </si>
+  <si>
+    <t>syeds1183</t>
+  </si>
+  <si>
+    <t>syeds1184</t>
+  </si>
+  <si>
+    <t>syeds1185</t>
+  </si>
+  <si>
+    <t>syeds1186</t>
+  </si>
+  <si>
+    <t>syeds1187</t>
+  </si>
+  <si>
+    <t>syeds1188</t>
+  </si>
+  <si>
+    <t>syeds1189</t>
+  </si>
+  <si>
+    <t>syeds1190</t>
+  </si>
+  <si>
+    <t>syeds1191</t>
+  </si>
+  <si>
+    <t>syeds1192</t>
+  </si>
+  <si>
+    <t>syeds1193</t>
+  </si>
+  <si>
+    <t>syeds1194</t>
+  </si>
+  <si>
+    <t>syeds1195</t>
+  </si>
+  <si>
+    <t>syeds1196</t>
+  </si>
+  <si>
+    <t>syeds1197</t>
+  </si>
+  <si>
+    <t>syeds1198</t>
+  </si>
+  <si>
+    <t>syeds1199</t>
+  </si>
+  <si>
+    <t>syeds1200</t>
+  </si>
+  <si>
+    <t>syeds1201</t>
+  </si>
+  <si>
+    <t>syeds1202</t>
+  </si>
+  <si>
+    <t>syeds1203</t>
+  </si>
+  <si>
+    <t>syeds1204</t>
+  </si>
+  <si>
+    <t>syeds1205</t>
+  </si>
+  <si>
+    <t>syeds1206</t>
+  </si>
+  <si>
+    <t>syeds1207</t>
+  </si>
+  <si>
+    <t>syeds1208</t>
+  </si>
+  <si>
+    <t>syeds1209</t>
+  </si>
+  <si>
+    <t>syeds1210</t>
+  </si>
+  <si>
+    <t>syeds1211</t>
+  </si>
+  <si>
+    <t>syeds1212</t>
+  </si>
+  <si>
+    <t>syeds1213</t>
+  </si>
+  <si>
+    <t>syeds1214</t>
+  </si>
+  <si>
+    <t>syeds1215</t>
+  </si>
+  <si>
+    <t>syeds1216</t>
+  </si>
+  <si>
+    <t>syeds1217</t>
+  </si>
+  <si>
+    <t>syeds1218</t>
+  </si>
+  <si>
+    <t>syeds1219</t>
+  </si>
+  <si>
+    <t>syeds1220</t>
+  </si>
+  <si>
+    <t>syeds1221</t>
+  </si>
+  <si>
+    <t>syeds1222</t>
+  </si>
+  <si>
+    <t>syeds1223</t>
+  </si>
+  <si>
+    <t>syeds1224</t>
+  </si>
+  <si>
+    <t>syeds1225</t>
+  </si>
+  <si>
+    <t>syeds1226</t>
+  </si>
+  <si>
+    <t>syeds1227</t>
+  </si>
+  <si>
+    <t>syeds1228</t>
+  </si>
+  <si>
+    <t>syeds1229</t>
+  </si>
+  <si>
+    <t>syeds1230</t>
+  </si>
+  <si>
+    <t>syeds1231</t>
+  </si>
+  <si>
+    <t>syeds1232</t>
+  </si>
+  <si>
+    <t>syeds1233</t>
+  </si>
+  <si>
+    <t>syeds1234</t>
+  </si>
+  <si>
+    <t>syeds1235</t>
+  </si>
+  <si>
+    <t>syeds1236</t>
+  </si>
+  <si>
+    <t>syeds1237</t>
+  </si>
+  <si>
+    <t>syeds1238</t>
+  </si>
+  <si>
+    <t>syeds1239</t>
+  </si>
+  <si>
+    <t>syeds1240</t>
+  </si>
+  <si>
+    <t>syeds1241</t>
+  </si>
+  <si>
+    <t>syeds1242</t>
+  </si>
+  <si>
+    <t>syeds1243</t>
+  </si>
+  <si>
+    <t>syeds1244</t>
+  </si>
+  <si>
+    <t>syeds1245</t>
+  </si>
+  <si>
+    <t>syeds1246</t>
+  </si>
+  <si>
+    <t>syeds1247</t>
+  </si>
+  <si>
+    <t>syeds1248</t>
+  </si>
+  <si>
+    <t>syeds1249</t>
+  </si>
+  <si>
+    <t>syeds1250</t>
+  </si>
+  <si>
+    <t>syeds1251</t>
+  </si>
+  <si>
+    <t>syeds1252</t>
+  </si>
+  <si>
+    <t>syeds1253</t>
+  </si>
+  <si>
+    <t>syeds1254</t>
+  </si>
+  <si>
+    <t>syeds1255</t>
+  </si>
+  <si>
+    <t>syeds1256</t>
+  </si>
+  <si>
+    <t>syeds1257</t>
+  </si>
+  <si>
+    <t>syeds1258</t>
+  </si>
+  <si>
+    <t>syeds1259</t>
+  </si>
+  <si>
+    <t>syeds1260</t>
+  </si>
+  <si>
+    <t>syeds1261</t>
+  </si>
+  <si>
+    <t>syeds1262</t>
+  </si>
+  <si>
+    <t>syeds1263</t>
+  </si>
+  <si>
+    <t>syeds1264</t>
+  </si>
+  <si>
+    <t>syeds1265</t>
+  </si>
+  <si>
+    <t>syeds1266</t>
+  </si>
+  <si>
+    <t>syeds1267</t>
+  </si>
+  <si>
+    <t>syeds1268</t>
+  </si>
+  <si>
+    <t>syeds1269</t>
+  </si>
+  <si>
+    <t>syeds1270</t>
+  </si>
+  <si>
+    <t>syeds1271</t>
+  </si>
+  <si>
+    <t>syeds1272</t>
+  </si>
+  <si>
+    <t>syeds1273</t>
+  </si>
+  <si>
+    <t>syeds1274</t>
+  </si>
+  <si>
+    <t>syeds1275</t>
+  </si>
+  <si>
+    <t>syeds1276</t>
+  </si>
+  <si>
+    <t>syeds1277</t>
+  </si>
+  <si>
+    <t>syeds1278</t>
+  </si>
+  <si>
+    <t>syeds1279</t>
+  </si>
+  <si>
+    <t>syeds1280</t>
+  </si>
+  <si>
+    <t>syeds1281</t>
+  </si>
+  <si>
+    <t>syeds1282</t>
+  </si>
+  <si>
+    <t>syeds1283</t>
+  </si>
+  <si>
+    <t>syeds1284</t>
+  </si>
+  <si>
+    <t>syeds1285</t>
+  </si>
+  <si>
+    <t>syeds1286</t>
+  </si>
+  <si>
+    <t>syeds1287</t>
+  </si>
+  <si>
+    <t>syeds1288</t>
+  </si>
+  <si>
+    <t>syeds1289</t>
+  </si>
+  <si>
+    <t>syeds1290</t>
+  </si>
+  <si>
+    <t>syeds1291</t>
+  </si>
+  <si>
+    <t>syeds1292</t>
+  </si>
+  <si>
+    <t>syeds1293</t>
+  </si>
+  <si>
+    <t>syeds1294</t>
+  </si>
+  <si>
+    <t>syeds1295</t>
+  </si>
+  <si>
+    <t>syeds1296</t>
+  </si>
+  <si>
+    <t>syeds1297</t>
+  </si>
+  <si>
+    <t>syeds1298</t>
+  </si>
+  <si>
+    <t>syeds1299</t>
+  </si>
+  <si>
+    <t>syeds1300</t>
+  </si>
+  <si>
+    <t>syeds1301</t>
+  </si>
+  <si>
+    <t>syeds1302</t>
+  </si>
+  <si>
+    <t>syeds1303</t>
+  </si>
+  <si>
+    <t>syeds1304</t>
+  </si>
+  <si>
+    <t>syeds1305</t>
+  </si>
+  <si>
+    <t>syeds1306</t>
+  </si>
+  <si>
+    <t>syeds1307</t>
+  </si>
+  <si>
+    <t>syeds1308</t>
+  </si>
+  <si>
+    <t>syeds1309</t>
+  </si>
+  <si>
+    <t>syeds1310</t>
+  </si>
+  <si>
+    <t>syeds1311</t>
+  </si>
+  <si>
+    <t>syeds1312</t>
+  </si>
+  <si>
+    <t>syeds1313</t>
+  </si>
+  <si>
+    <t>syeds1314</t>
+  </si>
+  <si>
+    <t>syeds1315</t>
+  </si>
+  <si>
+    <t>syeds1316</t>
+  </si>
+  <si>
+    <t>syeds1317</t>
+  </si>
+  <si>
+    <t>syeds1318</t>
+  </si>
+  <si>
+    <t>syeds1319</t>
+  </si>
+  <si>
+    <t>syeds1320</t>
+  </si>
+  <si>
+    <t>syeds1321</t>
+  </si>
+  <si>
+    <t>syeds1322</t>
+  </si>
+  <si>
+    <t>syeds1323</t>
+  </si>
+  <si>
+    <t>syeds1324</t>
+  </si>
+  <si>
+    <t>syeds1325</t>
+  </si>
+  <si>
+    <t>syeds1326</t>
+  </si>
+  <si>
+    <t>syeds1327</t>
+  </si>
+  <si>
+    <t>syeds1328</t>
+  </si>
+  <si>
+    <t>syeds1329</t>
+  </si>
+  <si>
+    <t>syeds1330</t>
+  </si>
+  <si>
+    <t>syeds1331</t>
+  </si>
+  <si>
+    <t>syeds1332</t>
+  </si>
+  <si>
+    <t>syeds1333</t>
+  </si>
+  <si>
+    <t>syeds1334</t>
+  </si>
+  <si>
+    <t>syeds1335</t>
+  </si>
+  <si>
+    <t>syeds1336</t>
+  </si>
+  <si>
+    <t>syeds1337</t>
+  </si>
+  <si>
+    <t>syeds1338</t>
+  </si>
+  <si>
+    <t>syeds1339</t>
+  </si>
+  <si>
+    <t>syeds1340</t>
+  </si>
+  <si>
+    <t>syeds1341</t>
+  </si>
+  <si>
+    <t>syeds1342</t>
+  </si>
+  <si>
+    <t>syeds1343</t>
+  </si>
+  <si>
+    <t>syeds1344</t>
+  </si>
+  <si>
+    <t>syeds1345</t>
+  </si>
+  <si>
+    <t>syeds1346</t>
+  </si>
+  <si>
+    <t>syeds1347</t>
+  </si>
+  <si>
+    <t>syeds1348</t>
+  </si>
+  <si>
+    <t>syeds1349</t>
+  </si>
+  <si>
+    <t>syeds1350</t>
+  </si>
+  <si>
+    <t>syeds1351</t>
+  </si>
+  <si>
+    <t>syeds1352</t>
+  </si>
+  <si>
+    <t>syeds1353</t>
+  </si>
+  <si>
+    <t>syeds1354</t>
+  </si>
+  <si>
+    <t>syeds1355</t>
+  </si>
+  <si>
+    <t>syeds1356</t>
+  </si>
+  <si>
+    <t>syeds1357</t>
+  </si>
+  <si>
+    <t>syeds1358</t>
+  </si>
+  <si>
+    <t>syeds1359</t>
+  </si>
+  <si>
+    <t>syeds1360</t>
+  </si>
+  <si>
+    <t>syeds1361</t>
+  </si>
+  <si>
+    <t>syeds1362</t>
+  </si>
+  <si>
+    <t>syeds1363</t>
+  </si>
+  <si>
+    <t>syeds1364</t>
+  </si>
+  <si>
+    <t>syeds1365</t>
+  </si>
+  <si>
+    <t>syeds1366</t>
+  </si>
+  <si>
+    <t>syeds1367</t>
+  </si>
+  <si>
+    <t>syeds1368</t>
+  </si>
+  <si>
+    <t>syeds1369</t>
+  </si>
+  <si>
+    <t>syeds1370</t>
+  </si>
+  <si>
+    <t>syeds1371</t>
+  </si>
+  <si>
+    <t>syeds1372</t>
+  </si>
+  <si>
+    <t>syeds1373</t>
+  </si>
+  <si>
+    <t>syeds1374</t>
+  </si>
+  <si>
+    <t>syeds1375</t>
+  </si>
+  <si>
+    <t>syeds1376</t>
+  </si>
+  <si>
+    <t>syeds1377</t>
+  </si>
+  <si>
+    <t>syeds1378</t>
+  </si>
+  <si>
+    <t>syeds1379</t>
+  </si>
+  <si>
+    <t>syeds1380</t>
+  </si>
+  <si>
+    <t>syeds1381</t>
+  </si>
+  <si>
+    <t>syeds1382</t>
+  </si>
+  <si>
+    <t>syeds1383</t>
+  </si>
+  <si>
+    <t>syeds1384</t>
+  </si>
+  <si>
+    <t>syeds1385</t>
+  </si>
+  <si>
+    <t>syeds1386</t>
+  </si>
+  <si>
+    <t>syeds1387</t>
+  </si>
+  <si>
+    <t>syeds1388</t>
+  </si>
+  <si>
+    <t>syeds1389</t>
+  </si>
+  <si>
+    <t>syeds1390</t>
+  </si>
+  <si>
+    <t>syeds1391</t>
+  </si>
+  <si>
+    <t>syeds1392</t>
+  </si>
+  <si>
+    <t>syeds1393</t>
+  </si>
+  <si>
+    <t>syeds1394</t>
+  </si>
+  <si>
+    <t>syeds1395</t>
+  </si>
+  <si>
+    <t>syeds1396</t>
+  </si>
+  <si>
+    <t>syeds1397</t>
+  </si>
+  <si>
+    <t>syeds1398</t>
+  </si>
+  <si>
+    <t>syeds1399</t>
+  </si>
+  <si>
+    <t>syeds1400</t>
+  </si>
+  <si>
+    <t>syeds1401</t>
+  </si>
+  <si>
+    <t>syeds1402</t>
+  </si>
+  <si>
+    <t>syeds1403</t>
+  </si>
+  <si>
+    <t>syeds1404</t>
+  </si>
+  <si>
+    <t>syeds1405</t>
+  </si>
+  <si>
+    <t>syeds1406</t>
+  </si>
+  <si>
+    <t>syeds1407</t>
+  </si>
+  <si>
+    <t>syeds1408</t>
+  </si>
+  <si>
+    <t>syeds1409</t>
+  </si>
+  <si>
+    <t>syeds1410</t>
+  </si>
+  <si>
+    <t>syeds1411</t>
+  </si>
+  <si>
+    <t>syeds1412</t>
+  </si>
+  <si>
+    <t>syeds1413</t>
+  </si>
+  <si>
+    <t>syeds1414</t>
+  </si>
+  <si>
+    <t>syeds1415</t>
+  </si>
+  <si>
+    <t>syeds1416</t>
+  </si>
+  <si>
+    <t>syeds1417</t>
+  </si>
+  <si>
+    <t>syeds1418</t>
+  </si>
+  <si>
+    <t>syeds1419</t>
+  </si>
+  <si>
+    <t>syeds1420</t>
+  </si>
+  <si>
+    <t>syeds1421</t>
+  </si>
+  <si>
+    <t>syeds1422</t>
+  </si>
+  <si>
+    <t>syeds1423</t>
+  </si>
+  <si>
+    <t>syeds1424</t>
+  </si>
+  <si>
+    <t>syeds1425</t>
+  </si>
+  <si>
+    <t>syeds1426</t>
+  </si>
+  <si>
+    <t>syeds1427</t>
+  </si>
+  <si>
+    <t>syeds1428</t>
+  </si>
+  <si>
+    <t>syeds1429</t>
+  </si>
+  <si>
+    <t>syeds1430</t>
+  </si>
+  <si>
+    <t>syeds1431</t>
+  </si>
+  <si>
+    <t>syeds1432</t>
+  </si>
+  <si>
+    <t>syeds1433</t>
+  </si>
+  <si>
+    <t>syeds1434</t>
+  </si>
+  <si>
+    <t>syeds1435</t>
+  </si>
+  <si>
+    <t>syeds1436</t>
+  </si>
+  <si>
+    <t>syeds1437</t>
+  </si>
+  <si>
+    <t>syeds1438</t>
+  </si>
+  <si>
+    <t>syeds1439</t>
+  </si>
+  <si>
+    <t>syeds1440</t>
+  </si>
+  <si>
+    <t>syeds1441</t>
+  </si>
+  <si>
+    <t>syeds1442</t>
+  </si>
+  <si>
+    <t>syeds1443</t>
+  </si>
+  <si>
+    <t>syeds1444</t>
+  </si>
+  <si>
+    <t>syeds1445</t>
+  </si>
+  <si>
+    <t>syeds1446</t>
+  </si>
+  <si>
+    <t>syeds1447</t>
+  </si>
+  <si>
+    <t>syeds1448</t>
+  </si>
+  <si>
+    <t>syeds1449</t>
+  </si>
+  <si>
+    <t>syeds1450</t>
+  </si>
+  <si>
+    <t>syeds1451</t>
+  </si>
+  <si>
+    <t>syeds1452</t>
+  </si>
+  <si>
+    <t>syeds1453</t>
+  </si>
+  <si>
+    <t>syeds1454</t>
+  </si>
+  <si>
+    <t>syeds1455</t>
+  </si>
+  <si>
+    <t>syeds1456</t>
+  </si>
+  <si>
+    <t>syeds1457</t>
+  </si>
+  <si>
+    <t>syeds1458</t>
+  </si>
+  <si>
+    <t>syeds1459</t>
+  </si>
+  <si>
+    <t>syeds1460</t>
+  </si>
+  <si>
+    <t>syeds1461</t>
+  </si>
+  <si>
+    <t>syeds1462</t>
+  </si>
+  <si>
+    <t>syeds1463</t>
+  </si>
+  <si>
+    <t>syeds1464</t>
+  </si>
+  <si>
+    <t>syeds1465</t>
+  </si>
+  <si>
+    <t>syeds1466</t>
+  </si>
+  <si>
+    <t>syeds1467</t>
+  </si>
+  <si>
+    <t>syeds1468</t>
+  </si>
+  <si>
+    <t>syeds1469</t>
+  </si>
+  <si>
+    <t>syeds1470</t>
+  </si>
+  <si>
+    <t>syeds1471</t>
+  </si>
+  <si>
+    <t>syeds1472</t>
+  </si>
+  <si>
+    <t>syeds1473</t>
+  </si>
+  <si>
+    <t>syeds1474</t>
+  </si>
+  <si>
+    <t>syeds1475</t>
+  </si>
+  <si>
+    <t>syeds1476</t>
+  </si>
+  <si>
+    <t>syeds1477</t>
+  </si>
+  <si>
+    <t>syeds1478</t>
+  </si>
+  <si>
+    <t>syeds1479</t>
+  </si>
+  <si>
+    <t>syeds1480</t>
+  </si>
+  <si>
+    <t>syeds1481</t>
+  </si>
+  <si>
+    <t>syeds1482</t>
+  </si>
+  <si>
+    <t>syeds1483</t>
+  </si>
+  <si>
+    <t>syeds1484</t>
+  </si>
+  <si>
+    <t>syeds1485</t>
+  </si>
+  <si>
+    <t>syeds1486</t>
+  </si>
+  <si>
+    <t>syeds1487</t>
+  </si>
+  <si>
+    <t>syeds1488</t>
+  </si>
+  <si>
+    <t>syeds1489</t>
+  </si>
+  <si>
+    <t>syeds1490</t>
+  </si>
+  <si>
+    <t>syeds1491</t>
+  </si>
+  <si>
+    <t>syeds1492</t>
+  </si>
+  <si>
+    <t>syeds1493</t>
+  </si>
+  <si>
+    <t>syeds1494</t>
+  </si>
+  <si>
+    <t>syeds1495</t>
+  </si>
+  <si>
+    <t>syeds1496</t>
+  </si>
+  <si>
+    <t>syeds1497</t>
+  </si>
+  <si>
+    <t>syeds1498</t>
+  </si>
+  <si>
+    <t>syeds1499</t>
+  </si>
+  <si>
+    <t>syeds1500</t>
+  </si>
+  <si>
+    <t>syeds1501</t>
+  </si>
+  <si>
+    <t>syeds1502</t>
+  </si>
+  <si>
+    <t>syeds1503</t>
+  </si>
+  <si>
+    <t>syeds1504</t>
+  </si>
+  <si>
+    <t>syeds1505</t>
+  </si>
+  <si>
+    <t>syeds1506</t>
+  </si>
+  <si>
+    <t>syeds1507</t>
+  </si>
+  <si>
+    <t>syeds1508</t>
+  </si>
+  <si>
+    <t>syeds1509</t>
+  </si>
+  <si>
+    <t>syeds1510</t>
+  </si>
+  <si>
+    <t>syeds1511</t>
+  </si>
+  <si>
+    <t>syeds1512</t>
+  </si>
+  <si>
+    <t>syeds1513</t>
+  </si>
+  <si>
+    <t>syeds1514</t>
+  </si>
+  <si>
+    <t>syeds1515</t>
+  </si>
+  <si>
+    <t>syeds1516</t>
+  </si>
+  <si>
+    <t>syeds1517</t>
+  </si>
+  <si>
+    <t>syeds1518</t>
+  </si>
+  <si>
+    <t>syeds1519</t>
+  </si>
+  <si>
+    <t>syeds1520</t>
+  </si>
+  <si>
+    <t>syeds1521</t>
+  </si>
+  <si>
+    <t>syeds1522</t>
+  </si>
+  <si>
+    <t>syeds1523</t>
+  </si>
+  <si>
+    <t>syeds1524</t>
+  </si>
+  <si>
+    <t>syeds1525</t>
+  </si>
+  <si>
+    <t>syeds1526</t>
+  </si>
+  <si>
+    <t>syeds1527</t>
+  </si>
+  <si>
+    <t>syeds1528</t>
+  </si>
+  <si>
+    <t>syeds1529</t>
+  </si>
+  <si>
+    <t>syeds1530</t>
+  </si>
+  <si>
+    <t>syeds1531</t>
+  </si>
+  <si>
+    <t>syeds1532</t>
+  </si>
+  <si>
+    <t>syeds1533</t>
+  </si>
+  <si>
+    <t>syeds1534</t>
+  </si>
+  <si>
+    <t>syeds1535</t>
+  </si>
+  <si>
+    <t>syeds1536</t>
+  </si>
+  <si>
+    <t>syeds1537</t>
+  </si>
+  <si>
+    <t>syeds1538</t>
+  </si>
+  <si>
+    <t>syeds1539</t>
+  </si>
+  <si>
+    <t>syeds1540</t>
+  </si>
+  <si>
+    <t>syeds1541</t>
+  </si>
+  <si>
+    <t>syeds1542</t>
+  </si>
+  <si>
+    <t>syeds1543</t>
+  </si>
+  <si>
+    <t>syeds1544</t>
+  </si>
+  <si>
+    <t>syeds1545</t>
+  </si>
+  <si>
+    <t>syeds1546</t>
+  </si>
+  <si>
+    <t>syeds1547</t>
+  </si>
+  <si>
+    <t>syeds1548</t>
+  </si>
+  <si>
+    <t>syeds1549</t>
+  </si>
+  <si>
+    <t>syeds1550</t>
+  </si>
+  <si>
+    <t>syeds1551</t>
+  </si>
+  <si>
+    <t>syeds1552</t>
+  </si>
+  <si>
+    <t>syeds1553</t>
+  </si>
+  <si>
+    <t>syeds1554</t>
+  </si>
+  <si>
+    <t>syeds1555</t>
+  </si>
+  <si>
+    <t>syeds1556</t>
+  </si>
+  <si>
+    <t>syeds1557</t>
+  </si>
+  <si>
+    <t>syeds1558</t>
+  </si>
+  <si>
+    <t>syeds1559</t>
+  </si>
+  <si>
+    <t>syeds1560</t>
+  </si>
+  <si>
+    <t>syeds1561</t>
+  </si>
+  <si>
+    <t>syeds1562</t>
+  </si>
+  <si>
+    <t>syeds1563</t>
+  </si>
+  <si>
+    <t>syeds1564</t>
+  </si>
+  <si>
+    <t>syeds1565</t>
+  </si>
+  <si>
+    <t>syeds1566</t>
+  </si>
+  <si>
+    <t>syeds1567</t>
+  </si>
+  <si>
+    <t>syeds1568</t>
+  </si>
+  <si>
+    <t>syeds1569</t>
+  </si>
+  <si>
+    <t>syeds1570</t>
+  </si>
+  <si>
+    <t>syeds1571</t>
+  </si>
+  <si>
+    <t>syeds1572</t>
+  </si>
+  <si>
+    <t>syeds1573</t>
+  </si>
+  <si>
+    <t>syeds1574</t>
+  </si>
+  <si>
+    <t>syeds1575</t>
+  </si>
+  <si>
+    <t>syeds1576</t>
+  </si>
+  <si>
+    <t>syeds1577</t>
+  </si>
+  <si>
+    <t>syeds1578</t>
+  </si>
+  <si>
+    <t>syeds1579</t>
+  </si>
+  <si>
+    <t>syeds1580</t>
+  </si>
+  <si>
+    <t>syeds1581</t>
+  </si>
+  <si>
+    <t>syeds1582</t>
+  </si>
+  <si>
+    <t>syeds1583</t>
+  </si>
+  <si>
+    <t>syeds1584</t>
+  </si>
+  <si>
+    <t>syeds1585</t>
+  </si>
+  <si>
+    <t>syeds1586</t>
+  </si>
+  <si>
+    <t>syeds1587</t>
+  </si>
+  <si>
+    <t>syeds1588</t>
+  </si>
+  <si>
+    <t>syeds1589</t>
+  </si>
+  <si>
+    <t>syeds1590</t>
+  </si>
+  <si>
+    <t>syeds1591</t>
+  </si>
+  <si>
+    <t>syeds1592</t>
+  </si>
+  <si>
+    <t>syeds1593</t>
+  </si>
+  <si>
+    <t>syeds1594</t>
+  </si>
+  <si>
+    <t>syeds1595</t>
+  </si>
+  <si>
+    <t>syeds1596</t>
+  </si>
+  <si>
+    <t>syeds1597</t>
+  </si>
+  <si>
+    <t>syeds1598</t>
+  </si>
+  <si>
+    <t>syeds1599</t>
+  </si>
+  <si>
+    <t>syeds1600</t>
+  </si>
+  <si>
+    <t>syeds1601</t>
   </si>
 </sst>
 </file>
@@ -262,12 +1885,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -551,15 +2171,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A437"/>
+  <dimension ref="A1:A602"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D598" sqref="D598"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -868,1132 +2488,2709 @@
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="2"/>
+      <c r="A62" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="2"/>
+      <c r="A63" s="1" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="2"/>
+      <c r="A64" s="1" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="2"/>
+      <c r="A65" s="1" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="2"/>
+      <c r="A66" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="2"/>
+      <c r="A67" s="1" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="2"/>
+      <c r="A68" s="1" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="2"/>
+      <c r="A69" s="1" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="2"/>
+      <c r="A70" s="1" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="2"/>
+      <c r="A71" s="1" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="2"/>
+      <c r="A72" s="1" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="2"/>
+      <c r="A73" s="1" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="2"/>
+      <c r="A74" s="1" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="2"/>
+      <c r="A75" s="1" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="2"/>
+      <c r="A76" s="1" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="2"/>
+      <c r="A77" s="1" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="2"/>
+      <c r="A78" s="1" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="2"/>
+      <c r="A79" s="1" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="2"/>
+      <c r="A80" s="1" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="2"/>
+      <c r="A81" s="1" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="2"/>
+      <c r="A82" s="1" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="2"/>
+      <c r="A83" s="1" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="2"/>
+      <c r="A84" s="1" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="2"/>
+      <c r="A85" s="1" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="2"/>
+      <c r="A86" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="2"/>
+      <c r="A87" s="1" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="2"/>
+      <c r="A88" s="1" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="2"/>
+      <c r="A89" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="2"/>
+      <c r="A90" s="1" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="2"/>
+      <c r="A91" s="1" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="2"/>
+      <c r="A92" s="1" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="2"/>
+      <c r="A93" s="1" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="2"/>
+      <c r="A94" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="2"/>
+      <c r="A95" s="1" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="2"/>
+      <c r="A96" s="1" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="2"/>
+      <c r="A97" s="1" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="2"/>
+      <c r="A98" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="2"/>
+      <c r="A99" s="1" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="2"/>
+      <c r="A100" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="2"/>
+      <c r="A101" s="1" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="2"/>
+      <c r="A102" s="1" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="2"/>
+      <c r="A103" s="1" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="2"/>
+      <c r="A104" s="1" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="2"/>
+      <c r="A105" s="1" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="2"/>
+      <c r="A106" s="1" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" s="2"/>
+      <c r="A107" s="1" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="2"/>
+      <c r="A108" s="1" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="2"/>
+      <c r="A109" s="1" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" s="2"/>
+      <c r="A110" s="1" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="2"/>
+      <c r="A111" s="1" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" s="2"/>
+      <c r="A112" s="1" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="2"/>
+      <c r="A113" s="1" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="2"/>
+      <c r="A114" s="1" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="2"/>
+      <c r="A115" s="1" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="2"/>
+      <c r="A116" s="1" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" s="2"/>
+      <c r="A117" s="1" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" s="2"/>
+      <c r="A118" s="1" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="2"/>
+      <c r="A119" s="1" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" s="2"/>
+      <c r="A120" s="1" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" s="2"/>
+      <c r="A121" s="1" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" s="2"/>
+      <c r="A122" s="1" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" s="2"/>
+      <c r="A123" s="1" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" s="2"/>
+      <c r="A124" s="1" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" s="2"/>
+      <c r="A125" s="1" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" s="2"/>
+      <c r="A126" s="1" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" s="2"/>
+      <c r="A127" s="1" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" s="2"/>
+      <c r="A128" s="1" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="2"/>
+      <c r="A129" s="1" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="2"/>
+      <c r="A130" s="1" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="2"/>
+      <c r="A131" s="1" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" s="2"/>
+      <c r="A132" s="1" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" s="2"/>
+      <c r="A133" s="1" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" s="2"/>
+      <c r="A134" s="1" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" s="2"/>
+      <c r="A135" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" s="2"/>
+      <c r="A136" s="1" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" s="2"/>
+      <c r="A137" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" s="2"/>
+      <c r="A138" s="1" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" s="2"/>
+      <c r="A139" s="1" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" s="2"/>
+      <c r="A140" s="1" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" s="2"/>
+      <c r="A141" s="1" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" s="2"/>
+      <c r="A142" s="1" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" s="2"/>
+      <c r="A143" s="1" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" s="2"/>
+      <c r="A144" s="1" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" s="2"/>
+      <c r="A145" s="1" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" s="2"/>
+      <c r="A146" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" s="2"/>
+      <c r="A147" s="1" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" s="2"/>
+      <c r="A148" s="1" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" s="2"/>
+      <c r="A149" s="1" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" s="2"/>
+      <c r="A150" s="1" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" s="2"/>
+      <c r="A151" s="1" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" s="2"/>
+      <c r="A152" s="1" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" s="2"/>
+      <c r="A153" s="1" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" s="2"/>
+      <c r="A154" s="1" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" s="2"/>
+      <c r="A155" s="1" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" s="2"/>
+      <c r="A156" s="1" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" s="2"/>
+      <c r="A157" s="1" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" s="2"/>
+      <c r="A158" s="1" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" s="2"/>
+      <c r="A159" s="1" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" s="2"/>
+      <c r="A160" s="1" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" s="2"/>
+      <c r="A161" s="1" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" s="2"/>
+      <c r="A162" s="1" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" s="2"/>
+      <c r="A163" s="1" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" s="2"/>
+      <c r="A164" s="1" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" s="2"/>
+      <c r="A165" s="1" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" s="2"/>
+      <c r="A166" s="1" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" s="2"/>
+      <c r="A167" s="1" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" s="2"/>
+      <c r="A168" s="1" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" s="2"/>
+      <c r="A169" s="1" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170" s="2"/>
+      <c r="A170" s="1" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" s="2"/>
+      <c r="A171" s="1" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" s="2"/>
+      <c r="A172" s="1" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" s="2"/>
+      <c r="A173" s="1" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" s="2"/>
+      <c r="A174" s="1" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" s="2"/>
+      <c r="A175" s="1" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" s="2"/>
+      <c r="A176" s="1" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" s="2"/>
+      <c r="A177" s="1" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" s="2"/>
+      <c r="A178" s="1" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" s="2"/>
+      <c r="A179" s="1" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" s="2"/>
+      <c r="A180" s="1" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" s="2"/>
+      <c r="A181" s="1" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" s="2"/>
+      <c r="A182" s="1" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" s="2"/>
+      <c r="A183" s="1" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" s="2"/>
+      <c r="A184" s="1" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" s="2"/>
+      <c r="A185" s="1" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" s="2"/>
+      <c r="A186" s="1" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" s="2"/>
+      <c r="A187" s="1" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" s="2"/>
+      <c r="A188" s="1" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" s="2"/>
+      <c r="A189" s="1" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" s="2"/>
+      <c r="A190" s="1" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" s="2"/>
+      <c r="A191" s="1" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" s="2"/>
+      <c r="A192" s="1" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" s="2"/>
+      <c r="A193" s="1" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" s="2"/>
+      <c r="A194" s="1" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" s="2"/>
+      <c r="A195" s="1" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" s="2"/>
+      <c r="A196" s="1" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" s="2"/>
+      <c r="A197" s="1" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" s="2"/>
+      <c r="A198" s="1" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" s="2"/>
+      <c r="A199" s="1" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" s="2"/>
+      <c r="A200" s="1" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" s="2"/>
+      <c r="A201" s="1" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" s="2"/>
+      <c r="A202" s="1" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" s="2"/>
+      <c r="A203" s="1" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" s="2"/>
+      <c r="A204" s="1" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205" s="2"/>
+      <c r="A205" s="1" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206" s="2"/>
+      <c r="A206" s="1" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A207" s="2"/>
+      <c r="A207" s="1" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208" s="2"/>
+      <c r="A208" s="1" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" s="2"/>
+      <c r="A209" s="1" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" s="2"/>
+      <c r="A210" s="1" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" s="2"/>
+      <c r="A211" s="1" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212" s="2"/>
+      <c r="A212" s="1" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213" s="2"/>
+      <c r="A213" s="1" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214" s="2"/>
+      <c r="A214" s="1" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A215" s="2"/>
+      <c r="A215" s="1" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216" s="2"/>
+      <c r="A216" s="1" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217" s="2"/>
+      <c r="A217" s="1" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218" s="2"/>
+      <c r="A218" s="1" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219" s="2"/>
+      <c r="A219" s="1" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220" s="2"/>
+      <c r="A220" s="1" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A221" s="2"/>
+      <c r="A221" s="1" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222" s="2"/>
+      <c r="A222" s="1" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A223" s="2"/>
+      <c r="A223" s="1" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A224" s="2"/>
+      <c r="A224" s="1" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A225" s="2"/>
+      <c r="A225" s="1" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226" s="2"/>
+      <c r="A226" s="1" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227" s="2"/>
+      <c r="A227" s="1" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A228" s="2"/>
+      <c r="A228" s="1" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229" s="2"/>
+      <c r="A229" s="1" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A230" s="2"/>
+      <c r="A230" s="1" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A231" s="2"/>
+      <c r="A231" s="1" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232" s="2"/>
+      <c r="A232" s="1" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A233" s="2"/>
+      <c r="A233" s="1" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234" s="2"/>
+      <c r="A234" s="1" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235" s="2"/>
+      <c r="A235" s="1" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A236" s="2"/>
+      <c r="A236" s="1" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A237" s="2"/>
+      <c r="A237" s="1" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A238" s="2"/>
+      <c r="A238" s="1" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A239" s="2"/>
+      <c r="A239" s="1" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A240" s="2"/>
+      <c r="A240" s="1" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A241" s="2"/>
+      <c r="A241" s="1" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A242" s="2"/>
+      <c r="A242" s="1" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A243" s="2"/>
+      <c r="A243" s="1" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A244" s="2"/>
+      <c r="A244" s="1" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A245" s="2"/>
+      <c r="A245" s="1" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A246" s="2"/>
+      <c r="A246" s="1" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A247" s="2"/>
+      <c r="A247" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A248" s="2"/>
+      <c r="A248" s="1" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A249" s="2"/>
+      <c r="A249" s="1" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A250" s="2"/>
+      <c r="A250" s="1" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A251" s="2"/>
+      <c r="A251" s="1" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A252" s="2"/>
+      <c r="A252" s="1" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A253" s="2"/>
+      <c r="A253" s="1" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A254" s="2"/>
+      <c r="A254" s="1" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A255" s="2"/>
+      <c r="A255" s="1" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A256" s="2"/>
+      <c r="A256" s="1" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A257" s="2"/>
+      <c r="A257" s="1" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A258" s="2"/>
+      <c r="A258" s="1" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A259" s="2"/>
+      <c r="A259" s="1" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A260" s="2"/>
+      <c r="A260" s="1" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A261" s="2"/>
+      <c r="A261" s="1" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A262" s="2"/>
+      <c r="A262" s="1" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A263" s="2"/>
+      <c r="A263" s="1" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A264" s="2"/>
+      <c r="A264" s="1" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A265" s="2"/>
+      <c r="A265" s="1" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A266" s="2"/>
+      <c r="A266" s="1" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A267" s="2"/>
+      <c r="A267" s="1" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A268" s="2"/>
+      <c r="A268" s="1" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A269" s="2"/>
+      <c r="A269" s="1" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A270" s="2"/>
+      <c r="A270" s="1" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A271" s="2"/>
+      <c r="A271" s="1" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A272" s="2"/>
+      <c r="A272" s="1" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A273" s="2"/>
+      <c r="A273" s="1" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A274" s="2"/>
+      <c r="A274" s="1" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A275" s="2"/>
+      <c r="A275" s="1" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A276" s="2"/>
+      <c r="A276" s="1" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A277" s="2"/>
+      <c r="A277" s="1" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A278" s="2"/>
+      <c r="A278" s="1" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A279" s="2"/>
+      <c r="A279" s="1" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A280" s="2"/>
+      <c r="A280" s="1" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A281" s="2"/>
+      <c r="A281" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A282" s="2"/>
+      <c r="A282" s="1" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A283" s="2"/>
+      <c r="A283" s="1" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A284" s="2"/>
+      <c r="A284" s="1" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A285" s="2"/>
+      <c r="A285" s="1" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A286" s="2"/>
+      <c r="A286" s="1" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A287" s="2"/>
+      <c r="A287" s="1" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A288" s="2"/>
+      <c r="A288" s="1" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A289" s="2"/>
+      <c r="A289" s="1" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A290" s="2"/>
+      <c r="A290" s="1" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A291" s="2"/>
+      <c r="A291" s="1" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A292" s="2"/>
+      <c r="A292" s="1" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A293" s="2"/>
+      <c r="A293" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A294" s="2"/>
+      <c r="A294" s="1" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A295" s="2"/>
+      <c r="A295" s="1" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A296" s="2"/>
+      <c r="A296" s="1" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A297" s="2"/>
+      <c r="A297" s="1" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A298" s="2"/>
+      <c r="A298" s="1" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A299" s="2"/>
+      <c r="A299" s="1" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A300" s="2"/>
+      <c r="A300" s="1" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A301" s="2"/>
+      <c r="A301" s="1" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A302" s="2"/>
+      <c r="A302" s="1" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A303" s="2"/>
+      <c r="A303" s="1" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A304" s="2"/>
+      <c r="A304" s="1" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A305" s="2"/>
+      <c r="A305" s="1" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A306" s="2"/>
+      <c r="A306" s="1" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A307" s="2"/>
+      <c r="A307" s="1" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A308" s="2"/>
+      <c r="A308" s="1" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A309" s="2"/>
+      <c r="A309" s="1" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A310" s="2"/>
+      <c r="A310" s="1" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A311" s="2"/>
+      <c r="A311" s="1" t="s">
+        <v>310</v>
+      </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A312" s="2"/>
+      <c r="A312" s="1" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A313" s="2"/>
+      <c r="A313" s="1" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A314" s="2"/>
+      <c r="A314" s="1" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A315" s="2"/>
+      <c r="A315" s="1" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A316" s="2"/>
+      <c r="A316" s="1" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A317" s="2"/>
+      <c r="A317" s="1" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A318" s="2"/>
+      <c r="A318" s="1" t="s">
+        <v>317</v>
+      </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A319" s="2"/>
+      <c r="A319" s="1" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A320" s="2"/>
+      <c r="A320" s="1" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A321" s="2"/>
+      <c r="A321" s="1" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A322" s="2"/>
+      <c r="A322" s="1" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A323" s="2"/>
+      <c r="A323" s="1" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A324" s="2"/>
+      <c r="A324" s="1" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A325" s="2"/>
+      <c r="A325" s="1" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A326" s="2"/>
+      <c r="A326" s="1" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A327" s="2"/>
+      <c r="A327" s="1" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A328" s="2"/>
+      <c r="A328" s="1" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A329" s="2"/>
+      <c r="A329" s="1" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A330" s="2"/>
+      <c r="A330" s="1" t="s">
+        <v>329</v>
+      </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A331" s="2"/>
+      <c r="A331" s="1" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A332" s="2"/>
+      <c r="A332" s="1" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A333" s="2"/>
+      <c r="A333" s="1" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A334" s="2"/>
+      <c r="A334" s="1" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A335" s="2"/>
+      <c r="A335" s="1" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A336" s="2"/>
+      <c r="A336" s="1" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A337" s="2"/>
+      <c r="A337" s="1" t="s">
+        <v>336</v>
+      </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A338" s="2"/>
+      <c r="A338" s="1" t="s">
+        <v>337</v>
+      </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A339" s="2"/>
+      <c r="A339" s="1" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A340" s="2"/>
+      <c r="A340" s="1" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A341" s="2"/>
+      <c r="A341" s="1" t="s">
+        <v>340</v>
+      </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A342" s="2"/>
+      <c r="A342" s="1" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A343" s="2"/>
+      <c r="A343" s="1" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A344" s="2"/>
+      <c r="A344" s="1" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A345" s="2"/>
+      <c r="A345" s="1" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A346" s="2"/>
+      <c r="A346" s="1" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A347" s="2"/>
+      <c r="A347" s="1" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A348" s="2"/>
+      <c r="A348" s="1" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A349" s="2"/>
+      <c r="A349" s="1" t="s">
+        <v>348</v>
+      </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A350" s="2"/>
+      <c r="A350" s="1" t="s">
+        <v>349</v>
+      </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A351" s="2"/>
+      <c r="A351" s="1" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A352" s="2"/>
+      <c r="A352" s="1" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A353" s="2"/>
+      <c r="A353" s="1" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A354" s="2"/>
+      <c r="A354" s="1" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A355" s="2"/>
+      <c r="A355" s="1" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A356" s="2"/>
+      <c r="A356" s="1" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A357" s="2"/>
+      <c r="A357" s="1" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A358" s="2"/>
+      <c r="A358" s="1" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A359" s="2"/>
+      <c r="A359" s="1" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A360" s="2"/>
+      <c r="A360" s="1" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A361" s="2"/>
+      <c r="A361" s="1" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A362" s="2"/>
+      <c r="A362" s="1" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A363" s="2"/>
+      <c r="A363" s="1" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A364" s="2"/>
+      <c r="A364" s="1" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A365" s="2"/>
+      <c r="A365" s="1" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A366" s="2"/>
+      <c r="A366" s="1" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A367" s="2"/>
+      <c r="A367" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A368" s="2"/>
+      <c r="A368" s="1" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A369" s="2"/>
+      <c r="A369" s="1" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A370" s="2"/>
+      <c r="A370" s="1" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A371" s="2"/>
+      <c r="A371" s="1" t="s">
+        <v>370</v>
+      </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A372" s="2"/>
+      <c r="A372" s="1" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A373" s="2"/>
+      <c r="A373" s="1" t="s">
+        <v>372</v>
+      </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A374" s="2"/>
+      <c r="A374" s="1" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A375" s="2"/>
+      <c r="A375" s="1" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A376" s="2"/>
+      <c r="A376" s="1" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A377" s="2"/>
+      <c r="A377" s="1" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A378" s="2"/>
+      <c r="A378" s="1" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A379" s="2"/>
+      <c r="A379" s="1" t="s">
+        <v>378</v>
+      </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A380" s="2"/>
+      <c r="A380" s="1" t="s">
+        <v>379</v>
+      </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A381" s="2"/>
+      <c r="A381" s="1" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A382" s="2"/>
+      <c r="A382" s="1" t="s">
+        <v>381</v>
+      </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A383" s="2"/>
+      <c r="A383" s="1" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A384" s="2"/>
+      <c r="A384" s="1" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A385" s="2"/>
+      <c r="A385" s="1" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A386" s="2"/>
+      <c r="A386" s="1" t="s">
+        <v>385</v>
+      </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A387" s="2"/>
+      <c r="A387" s="1" t="s">
+        <v>386</v>
+      </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A388" s="2"/>
+      <c r="A388" s="1" t="s">
+        <v>387</v>
+      </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A389" s="2"/>
+      <c r="A389" s="1" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A390" s="2"/>
+      <c r="A390" s="1" t="s">
+        <v>389</v>
+      </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A391" s="2"/>
+      <c r="A391" s="1" t="s">
+        <v>390</v>
+      </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A392" s="2"/>
+      <c r="A392" s="1" t="s">
+        <v>391</v>
+      </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A393" s="2"/>
+      <c r="A393" s="1" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A394" s="2"/>
+      <c r="A394" s="1" t="s">
+        <v>393</v>
+      </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A395" s="2"/>
+      <c r="A395" s="1" t="s">
+        <v>394</v>
+      </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A396" s="2"/>
+      <c r="A396" s="1" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A397" s="2"/>
+      <c r="A397" s="1" t="s">
+        <v>396</v>
+      </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A398" s="2"/>
+      <c r="A398" s="1" t="s">
+        <v>397</v>
+      </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A399" s="2"/>
+      <c r="A399" s="1" t="s">
+        <v>398</v>
+      </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A400" s="2"/>
+      <c r="A400" s="1" t="s">
+        <v>399</v>
+      </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A401" s="2"/>
+      <c r="A401" s="1" t="s">
+        <v>400</v>
+      </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A402" s="2"/>
+      <c r="A402" s="1" t="s">
+        <v>401</v>
+      </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A403" s="2"/>
+      <c r="A403" s="1" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A404" s="2"/>
+      <c r="A404" s="1" t="s">
+        <v>403</v>
+      </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A405" s="2"/>
+      <c r="A405" s="1" t="s">
+        <v>404</v>
+      </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A406" s="2"/>
+      <c r="A406" s="1" t="s">
+        <v>405</v>
+      </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A407" s="2"/>
+      <c r="A407" s="1" t="s">
+        <v>406</v>
+      </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A408" s="2"/>
+      <c r="A408" s="1" t="s">
+        <v>407</v>
+      </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A409" s="2"/>
+      <c r="A409" s="1" t="s">
+        <v>408</v>
+      </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A410" s="2"/>
+      <c r="A410" s="1" t="s">
+        <v>409</v>
+      </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A411" s="2"/>
+      <c r="A411" s="1" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A412" s="2"/>
+      <c r="A412" s="1" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A413" s="2"/>
+      <c r="A413" s="1" t="s">
+        <v>412</v>
+      </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A414" s="2"/>
+      <c r="A414" s="1" t="s">
+        <v>413</v>
+      </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A415" s="2"/>
+      <c r="A415" s="1" t="s">
+        <v>414</v>
+      </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A416" s="2"/>
+      <c r="A416" s="1" t="s">
+        <v>415</v>
+      </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A417" s="2"/>
+      <c r="A417" s="1" t="s">
+        <v>416</v>
+      </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A418" s="2"/>
+      <c r="A418" s="1" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A419" s="2"/>
+      <c r="A419" s="1" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A420" s="2"/>
+      <c r="A420" s="1" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A421" s="2"/>
+      <c r="A421" s="1" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A422" s="2"/>
+      <c r="A422" s="1" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A423" s="2"/>
+      <c r="A423" s="1" t="s">
+        <v>422</v>
+      </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A424" s="2"/>
+      <c r="A424" s="1" t="s">
+        <v>423</v>
+      </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A425" s="2"/>
+      <c r="A425" s="1" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A426" s="2"/>
+      <c r="A426" s="1" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A427" s="2"/>
+      <c r="A427" s="1" t="s">
+        <v>426</v>
+      </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A428" s="2"/>
+      <c r="A428" s="1" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A429" s="2"/>
+      <c r="A429" s="1" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A430" s="2"/>
+      <c r="A430" s="1" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A431" s="2"/>
+      <c r="A431" s="1" t="s">
+        <v>430</v>
+      </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A432" s="2"/>
+      <c r="A432" s="1" t="s">
+        <v>431</v>
+      </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A433" s="2"/>
+      <c r="A433" s="1" t="s">
+        <v>432</v>
+      </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A434" s="2"/>
+      <c r="A434" s="1" t="s">
+        <v>433</v>
+      </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A435" s="2"/>
+      <c r="A435" s="1" t="s">
+        <v>434</v>
+      </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A436" s="2"/>
+      <c r="A436" s="1" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A437" s="2"/>
+      <c r="A437" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A438" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A439" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A440" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A441" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A442" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A443" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A444" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A445" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A446" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A447" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A448" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A449" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A450" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A451" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A452" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A453" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A454" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A455" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A456" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A457" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A458" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A459" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A460" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A461" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A462" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A463" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A464" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A465" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A466" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A467" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A468" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A469" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A470" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A471" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A472" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A473" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A474" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A475" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A476" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A477" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A478" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A479" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A480" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A481" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A482" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A483" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A484" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A485" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A486" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A487" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A488" s="1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A489" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A490" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A491" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A492" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A493" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A494" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A495" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A496" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A497" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A498" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A499" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A500" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A501" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A502" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A503" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A504" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A505" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A506" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A507" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A508" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A509" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A510" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A511" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A512" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A513" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A514" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A515" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A516" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A517" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A518" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A519" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A520" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A521" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A522" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A523" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A524" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A525" s="1" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="526" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A526" s="1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="527" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A527" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="528" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A528" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A529" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A530" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A531" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A532" s="1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A533" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A534" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A535" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A536" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A537" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A538" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A539" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A540" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A541" s="1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="542" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A542" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="543" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A543" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="544" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A544" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A545" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A546" s="1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A547" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A548" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A549" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A550" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A551" s="1" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A552" s="1" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A553" s="1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A554" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A555" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A556" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A557" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A558" s="1" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A559" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A560" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A561" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A562" s="1" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A563" s="1" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A564" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A565" s="1" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A566" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A567" s="1" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A568" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A569" s="1" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A570" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A571" s="1" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="572" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A572" s="1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="573" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A573" s="1" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="574" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A574" s="1" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="575" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A575" s="1" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="576" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A576" s="1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="577" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A577" s="1" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="578" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A578" s="1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="579" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A579" s="1" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="580" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A580" s="1" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="581" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A581" s="1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="582" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A582" s="1" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="583" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A583" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="584" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A584" s="1" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="585" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A585" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="586" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A586" s="1" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="587" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A587" s="1" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="588" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A588" s="1" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="589" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A589" s="1" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="590" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A590" s="1" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="591" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A591" s="1" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="592" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A592" s="1" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="593" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A593" s="1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="594" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A594" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="595" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A595" s="1" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="596" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A596" s="1" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="597" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A597" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="598" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A598" s="1" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="599" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A599" s="1" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="600" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A600" s="1" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="601" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A601" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="602" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A602" s="1" t="s">
+        <v>601</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
